--- a/plantilla_ejemplo_1.xlsx
+++ b/plantilla_ejemplo_1.xlsx
@@ -1457,8 +1457,10 @@
       <c r="V1" s="191" t="n"/>
       <c r="W1" s="191" t="n"/>
       <c r="X1" s="192" t="n"/>
-      <c r="Y1" s="92" t="n">
-        <v>1</v>
+      <c r="Y1" s="92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="Z1" s="191" t="n"/>
       <c r="AA1" s="191" t="n"/>
@@ -1807,7 +1809,7 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="203" t="inlineStr">
         <is>
-          <t>4.6719056,-74.0645861, 2580.60009765625</t>
+          <t>4.6719056,-74.0645861, 2580.600098</t>
         </is>
       </c>
       <c r="B10" s="188" t="n"/>
@@ -2021,8 +2023,10 @@
       <c r="R15" s="191" t="n"/>
       <c r="S15" s="191" t="n"/>
       <c r="T15" s="192" t="n"/>
-      <c r="U15" s="6" t="n">
-        <v>352447523</v>
+      <c r="U15" s="6" t="inlineStr">
+        <is>
+          <t>352447523</t>
+        </is>
       </c>
       <c r="V15" s="191" t="n"/>
       <c r="W15" s="191" t="n"/>
@@ -2048,7 +2052,7 @@
       <c r="F16" s="192" t="n"/>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>Narco</t>
+          <t>Ejemplo</t>
         </is>
       </c>
       <c r="H16" s="191" t="n"/>
@@ -2070,8 +2074,10 @@
       <c r="T16" s="191" t="n"/>
       <c r="U16" s="191" t="n"/>
       <c r="V16" s="192" t="n"/>
-      <c r="W16" s="6" t="n">
-        <v>2010</v>
+      <c r="W16" s="6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="X16" s="191" t="n"/>
       <c r="Y16" s="191" t="n"/>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="P30" s="119" t="inlineStr">
         <is>
-          <t>De sol a sol</t>
+          <t>Nocturno</t>
         </is>
       </c>
       <c r="Q30" s="196" t="n"/>
@@ -2783,7 +2789,7 @@
       <c r="A37" s="5" t="n"/>
       <c r="B37" s="135" t="inlineStr">
         <is>
-          <t>Coca</t>
+          <t>Ejemplo</t>
         </is>
       </c>
       <c r="C37" s="196" t="n"/>
@@ -3405,8 +3411,10 @@
           <t>$</t>
         </is>
       </c>
-      <c r="Y59" s="86" t="n">
-        <v>0</v>
+      <c r="Y59" s="86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Z59" s="196" t="n"/>
       <c r="AA59" s="196" t="n"/>
